--- a/data_files/final_dataset/final_ranks.xlsx
+++ b/data_files/final_dataset/final_ranks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_USASK\Programming@USASK\FindCochangeByClone\data_files\final_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A01DF-18AB-4204-80D1-CDA3794BC80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3255FB-6B06-49BF-B199-14C796B4989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{087DFBFD-8A4C-451C-8DA5-035A6E68DF2F}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
   <si>
     <t xml:space="preserve">Tools </t>
   </si>
@@ -136,6 +138,9 @@
   </si>
   <si>
     <t>Simian</t>
+  </si>
+  <si>
+    <t>Brlcad</t>
   </si>
 </sst>
 </file>
@@ -257,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -315,19 +320,22 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20053303-CA2B-4CF6-A62D-8651FC723CC4}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -677,46 +685,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="U1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:29" ht="69">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -742,8 +750,8 @@
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>3</v>
+      <c r="L2" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>4</v>
@@ -769,8 +777,8 @@
       <c r="U2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>3</v>
+      <c r="V2" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>4</v>
@@ -1311,28 +1319,28 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="U12" s="22" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="U12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
     </row>
     <row r="13" spans="1:29" ht="69">
       <c r="B13" t="s">
@@ -1873,15 +1881,15 @@
       <c r="Z22" s="16"/>
     </row>
     <row r="23" spans="1:29" ht="14.4" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="9"/>
@@ -1920,8 +1928,8 @@
       <c r="A24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>3</v>
+      <c r="B24" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>4</v>
